--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.9452776098589</v>
+        <v>796.5350909323703</v>
       </c>
       <c r="AB2" t="n">
-        <v>939.9088347125756</v>
+        <v>1089.854452061779</v>
       </c>
       <c r="AC2" t="n">
-        <v>850.2052546979414</v>
+        <v>985.8402727773324</v>
       </c>
       <c r="AD2" t="n">
-        <v>686945.2776098589</v>
+        <v>796535.0909323703</v>
       </c>
       <c r="AE2" t="n">
-        <v>939908.8347125757</v>
+        <v>1089854.452061779</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.778507894480565e-07</v>
+        <v>1.624253794482346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.31119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>850205.2546979415</v>
+        <v>985840.2727773325</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>488.2388916199278</v>
+        <v>573.6080959156749</v>
       </c>
       <c r="AB3" t="n">
-        <v>668.029991094097</v>
+        <v>784.8359026350251</v>
       </c>
       <c r="AC3" t="n">
-        <v>604.274146330057</v>
+        <v>709.9322656116452</v>
       </c>
       <c r="AD3" t="n">
-        <v>488238.8916199278</v>
+        <v>573608.0959156749</v>
       </c>
       <c r="AE3" t="n">
-        <v>668029.991094097</v>
+        <v>784835.9026350251</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.122493138997502e-06</v>
+        <v>2.076906192045948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.53515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>604274.1463300569</v>
+        <v>709932.2656116452</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.4733810793525</v>
+        <v>506.561733415401</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.0974034886756</v>
+        <v>693.1001115853933</v>
       </c>
       <c r="AC4" t="n">
-        <v>536.4930197171495</v>
+        <v>626.9516097077986</v>
       </c>
       <c r="AD4" t="n">
-        <v>433473.3810793525</v>
+        <v>506561.733415401</v>
       </c>
       <c r="AE4" t="n">
-        <v>593097.4034886756</v>
+        <v>693100.1115853933</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.220667523331531e-06</v>
+        <v>2.258554506534308e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>536493.0197171496</v>
+        <v>626951.6097077987</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.024524517107</v>
+        <v>484.2230471037109</v>
       </c>
       <c r="AB5" t="n">
-        <v>545.9629581639202</v>
+        <v>662.5353354604529</v>
       </c>
       <c r="AC5" t="n">
-        <v>493.8570197005794</v>
+        <v>599.30389291829</v>
       </c>
       <c r="AD5" t="n">
-        <v>399024.5245171069</v>
+        <v>484223.0471037109</v>
       </c>
       <c r="AE5" t="n">
-        <v>545962.9581639202</v>
+        <v>662535.3354604528</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271178547510999e-06</v>
+        <v>2.352013125781292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>493857.0197005793</v>
+        <v>599303.89291829</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>384.9937579179523</v>
+        <v>458.1673616000213</v>
       </c>
       <c r="AB6" t="n">
-        <v>526.7654443092208</v>
+        <v>626.8847970585877</v>
       </c>
       <c r="AC6" t="n">
-        <v>476.4916896242924</v>
+        <v>567.0557918656539</v>
       </c>
       <c r="AD6" t="n">
-        <v>384993.7579179523</v>
+        <v>458167.3616000212</v>
       </c>
       <c r="AE6" t="n">
-        <v>526765.4443092208</v>
+        <v>626884.7970585877</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.304696953574638e-06</v>
+        <v>2.414030952601378e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.64713541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>476491.6896242924</v>
+        <v>567055.7918656538</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>373.4664701992231</v>
+        <v>446.4694816806999</v>
       </c>
       <c r="AB7" t="n">
-        <v>510.9933007044129</v>
+        <v>610.8792416789329</v>
       </c>
       <c r="AC7" t="n">
-        <v>462.2248172687849</v>
+        <v>552.5777842274953</v>
       </c>
       <c r="AD7" t="n">
-        <v>373466.4701992231</v>
+        <v>446469.4816806999</v>
       </c>
       <c r="AE7" t="n">
-        <v>510993.3007044129</v>
+        <v>610879.2416789329</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.326031092253027e-06</v>
+        <v>2.45350469474174e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>462224.8172687849</v>
+        <v>552577.7842274953</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>361.8850327743436</v>
+        <v>434.8880442558204</v>
       </c>
       <c r="AB8" t="n">
-        <v>495.1470670827338</v>
+        <v>595.0330080572537</v>
       </c>
       <c r="AC8" t="n">
-        <v>447.8909259436302</v>
+        <v>538.2438929023405</v>
       </c>
       <c r="AD8" t="n">
-        <v>361885.0327743436</v>
+        <v>434888.0442558204</v>
       </c>
       <c r="AE8" t="n">
-        <v>495147.0670827338</v>
+        <v>595033.0080572537</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.338985629415506e-06</v>
+        <v>2.47747398017708e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.34765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>447890.9259436302</v>
+        <v>538243.8929023405</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>354.3166739563877</v>
+        <v>427.3196854378645</v>
       </c>
       <c r="AB9" t="n">
-        <v>484.7917046555805</v>
+        <v>584.6776456301004</v>
       </c>
       <c r="AC9" t="n">
-        <v>438.523864772682</v>
+        <v>528.8768317313924</v>
       </c>
       <c r="AD9" t="n">
-        <v>354316.6739563877</v>
+        <v>427319.6854378645</v>
       </c>
       <c r="AE9" t="n">
-        <v>484791.7046555805</v>
+        <v>584677.6456301004</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.351986849594787e-06</v>
+        <v>2.501529641415791e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.23697916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>438523.864772682</v>
+        <v>528876.8317313924</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>353.5591873956121</v>
+        <v>426.5621988770889</v>
       </c>
       <c r="AB10" t="n">
-        <v>483.7552781251788</v>
+        <v>583.6412190996986</v>
       </c>
       <c r="AC10" t="n">
-        <v>437.5863533357081</v>
+        <v>527.9393202944184</v>
       </c>
       <c r="AD10" t="n">
-        <v>353559.1873956121</v>
+        <v>426562.1988770889</v>
       </c>
       <c r="AE10" t="n">
-        <v>483755.2781251788</v>
+        <v>583641.2190996986</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.351963508086386e-06</v>
+        <v>2.501486453514105e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.23697916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>437586.353335708</v>
+        <v>527939.3202944184</v>
       </c>
     </row>
     <row r="11">
@@ -4056,28 +4056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>354.2910909965132</v>
+        <v>427.2941024779899</v>
       </c>
       <c r="AB11" t="n">
-        <v>484.7567009212394</v>
+        <v>584.6426418957594</v>
       </c>
       <c r="AC11" t="n">
-        <v>438.4922017456185</v>
+        <v>528.8451687043288</v>
       </c>
       <c r="AD11" t="n">
-        <v>354291.0909965131</v>
+        <v>427294.1024779899</v>
       </c>
       <c r="AE11" t="n">
-        <v>484756.7009212394</v>
+        <v>584642.6418957594</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.351706751493976e-06</v>
+        <v>2.501011386595567e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.24348958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>438492.2017456185</v>
+        <v>528845.1687043288</v>
       </c>
     </row>
   </sheetData>
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>545.8840110847437</v>
+        <v>639.9937081464818</v>
       </c>
       <c r="AB2" t="n">
-        <v>746.9025866690446</v>
+        <v>875.6676260157274</v>
       </c>
       <c r="AC2" t="n">
-        <v>675.6192520817144</v>
+        <v>792.0951367960176</v>
       </c>
       <c r="AD2" t="n">
-        <v>545884.0110847438</v>
+        <v>639993.7081464818</v>
       </c>
       <c r="AE2" t="n">
-        <v>746902.5866690446</v>
+        <v>875667.6260157274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.01383757866613e-06</v>
+        <v>1.932530892922977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>675619.2520817145</v>
+        <v>792095.1367960176</v>
       </c>
     </row>
     <row r="3">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>408.116970881973</v>
+        <v>490.3776149564221</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.4036444107531</v>
+        <v>670.9562867169032</v>
       </c>
       <c r="AC3" t="n">
-        <v>505.1103843126274</v>
+        <v>606.921160405704</v>
       </c>
       <c r="AD3" t="n">
-        <v>408116.970881973</v>
+        <v>490377.6149564221</v>
       </c>
       <c r="AE3" t="n">
-        <v>558403.6444107532</v>
+        <v>670956.2867169031</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.241442147139871e-06</v>
+        <v>2.366380327192918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.66276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>505110.3843126274</v>
+        <v>606921.1604057039</v>
       </c>
     </row>
     <row r="4">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.0195413790877</v>
+        <v>448.194844598965</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.8040841573909</v>
+        <v>613.2399593413431</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.0080452483554</v>
+        <v>554.7131983094931</v>
       </c>
       <c r="AD4" t="n">
-        <v>366019.5413790877</v>
+        <v>448194.844598965</v>
       </c>
       <c r="AE4" t="n">
-        <v>500804.0841573909</v>
+        <v>613239.9593413431</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.321898164767126e-06</v>
+        <v>2.51974191376065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.89453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>453008.0452483554</v>
+        <v>554713.1983094931</v>
       </c>
     </row>
     <row r="5">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>346.9006616328888</v>
+        <v>417.3123422286</v>
       </c>
       <c r="AB5" t="n">
-        <v>474.6447894231961</v>
+        <v>570.9851571583612</v>
       </c>
       <c r="AC5" t="n">
-        <v>429.3453568887913</v>
+        <v>516.4911351418677</v>
       </c>
       <c r="AD5" t="n">
-        <v>346900.6616328888</v>
+        <v>417312.3422285999</v>
       </c>
       <c r="AE5" t="n">
-        <v>474644.7894231961</v>
+        <v>570985.1571583612</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.369925481411967e-06</v>
+        <v>2.611289391456694e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.47786458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>429345.3568887914</v>
+        <v>516491.1351418678</v>
       </c>
     </row>
     <row r="6">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.6336440671419</v>
+        <v>403.0453246628531</v>
       </c>
       <c r="AB6" t="n">
-        <v>455.1240265733482</v>
+        <v>551.4643943085134</v>
       </c>
       <c r="AC6" t="n">
-        <v>411.6876282477702</v>
+        <v>498.8334065008466</v>
       </c>
       <c r="AD6" t="n">
-        <v>332633.6440671419</v>
+        <v>403045.3246628531</v>
       </c>
       <c r="AE6" t="n">
-        <v>455124.0265733482</v>
+        <v>551464.3943085134</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39762147547513e-06</v>
+        <v>2.66408223053028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>411687.6282477702</v>
+        <v>498833.4065008466</v>
       </c>
     </row>
     <row r="7">
@@ -4883,28 +4883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>325.0926656730751</v>
+        <v>383.9113158452122</v>
       </c>
       <c r="AB7" t="n">
-        <v>444.8061272500989</v>
+        <v>525.284399311324</v>
       </c>
       <c r="AC7" t="n">
-        <v>402.3544547546692</v>
+        <v>475.1519934823352</v>
       </c>
       <c r="AD7" t="n">
-        <v>325092.6656730751</v>
+        <v>383911.3158452122</v>
       </c>
       <c r="AE7" t="n">
-        <v>444806.1272500989</v>
+        <v>525284.399311324</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.409235924598392e-06</v>
+        <v>2.68622116304501e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.15234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>402354.4547546692</v>
+        <v>475151.9934823352</v>
       </c>
     </row>
     <row r="8">
@@ -4989,28 +4989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>325.3599462793218</v>
+        <v>384.178596451459</v>
       </c>
       <c r="AB8" t="n">
-        <v>445.1718323671539</v>
+        <v>525.650104428379</v>
       </c>
       <c r="AC8" t="n">
-        <v>402.6852574886227</v>
+        <v>475.4827962162888</v>
       </c>
       <c r="AD8" t="n">
-        <v>325359.9462793218</v>
+        <v>384178.596451459</v>
       </c>
       <c r="AE8" t="n">
-        <v>445171.8323671538</v>
+        <v>525650.104428379</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.409332510453887e-06</v>
+        <v>2.68640527059191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.15234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>402685.2574886227</v>
+        <v>475482.7962162888</v>
       </c>
     </row>
   </sheetData>
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.2067003984781</v>
+        <v>360.9021039996029</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.01956343632</v>
+        <v>493.8021805693764</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.0787489610108</v>
+        <v>446.6743935115476</v>
       </c>
       <c r="AD2" t="n">
-        <v>298206.7003984781</v>
+        <v>360902.1039996029</v>
       </c>
       <c r="AE2" t="n">
-        <v>408019.56343632</v>
+        <v>493802.1805693764</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.439776168524016e-06</v>
+        <v>3.066346445308161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.18098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>369078.7489610108</v>
+        <v>446674.3935115476</v>
       </c>
     </row>
     <row r="3">
@@ -5392,28 +5392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.6375716133259</v>
+        <v>319.2476343598822</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.1428475317769</v>
+        <v>436.808697542806</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.6302669955308</v>
+        <v>395.1202885141773</v>
       </c>
       <c r="AD3" t="n">
-        <v>256637.5716133259</v>
+        <v>319247.6343598822</v>
       </c>
       <c r="AE3" t="n">
-        <v>351142.8475317769</v>
+        <v>436808.697542806</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.562532741317552e-06</v>
+        <v>3.327785819603092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>317630.2669955308</v>
+        <v>395120.2885141773</v>
       </c>
     </row>
     <row r="4">
@@ -5498,28 +5498,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.8030421382924</v>
+        <v>319.4131048848487</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.3692516040803</v>
+        <v>437.0351016151096</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.8350633809337</v>
+        <v>395.3250848995802</v>
       </c>
       <c r="AD4" t="n">
-        <v>256803.0421382924</v>
+        <v>319413.1048848487</v>
       </c>
       <c r="AE4" t="n">
-        <v>351369.2516040803</v>
+        <v>437035.1016151096</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563017732167044e-06</v>
+        <v>3.328818723188981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>317835.0633809337</v>
+        <v>395325.0848995802</v>
       </c>
     </row>
   </sheetData>
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.5028619362257</v>
+        <v>454.1348420590359</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.5160699520155</v>
+        <v>621.3673259204051</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.2205011706516</v>
+        <v>562.0649004290801</v>
       </c>
       <c r="AD2" t="n">
-        <v>377502.8619362257</v>
+        <v>454134.8420590359</v>
       </c>
       <c r="AE2" t="n">
-        <v>516516.0699520155</v>
+        <v>621367.3259204051</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.268895268872291e-06</v>
+        <v>2.576296093081285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.22265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>467220.5011706516</v>
+        <v>562064.9004290801</v>
       </c>
     </row>
     <row r="3">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.1391721895657</v>
+        <v>367.9699484667678</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.4001448292971</v>
+        <v>503.4727171806427</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.9458152175356</v>
+        <v>455.4219876813181</v>
       </c>
       <c r="AD3" t="n">
-        <v>302139.1721895657</v>
+        <v>367969.9484667678</v>
       </c>
       <c r="AE3" t="n">
-        <v>413400.1448292971</v>
+        <v>503472.7171806428</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.449175471007152e-06</v>
+        <v>2.942327231989009e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.58203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>373945.8152175356</v>
+        <v>455421.9876813181</v>
       </c>
     </row>
     <row r="4">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>281.3124587091927</v>
+        <v>336.1715284487454</v>
       </c>
       <c r="AB4" t="n">
-        <v>384.9041166356985</v>
+        <v>459.9647160647015</v>
       </c>
       <c r="AC4" t="n">
-        <v>348.1694079603072</v>
+        <v>416.066329128019</v>
       </c>
       <c r="AD4" t="n">
-        <v>281312.4587091927</v>
+        <v>336171.5284487454</v>
       </c>
       <c r="AE4" t="n">
-        <v>384904.1166356985</v>
+        <v>459964.7160647014</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50933760880852e-06</v>
+        <v>3.064477171681692e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>348169.4079603072</v>
+        <v>416066.329128019</v>
       </c>
     </row>
     <row r="5">
@@ -6113,28 +6113,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>282.0021276729556</v>
+        <v>336.8611974125083</v>
       </c>
       <c r="AB5" t="n">
-        <v>385.8477521379662</v>
+        <v>460.9083515669692</v>
       </c>
       <c r="AC5" t="n">
-        <v>349.0229842146392</v>
+        <v>416.9199053823511</v>
       </c>
       <c r="AD5" t="n">
-        <v>282002.1276729556</v>
+        <v>336861.1974125083</v>
       </c>
       <c r="AE5" t="n">
-        <v>385847.7521379662</v>
+        <v>460908.3515669692</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505651582370818e-06</v>
+        <v>3.05699326363711e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>349022.9842146392</v>
+        <v>416919.9053823511</v>
       </c>
     </row>
   </sheetData>
@@ -6410,28 +6410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.6749686221951</v>
+        <v>301.953898404159</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.6703540158658</v>
+        <v>413.1466450624013</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.1116395274466</v>
+        <v>373.716509112603</v>
       </c>
       <c r="AD2" t="n">
-        <v>241674.9686221951</v>
+        <v>301953.898404159</v>
       </c>
       <c r="AE2" t="n">
-        <v>330670.3540158658</v>
+        <v>413146.6450624013</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.57225546186628e-06</v>
+        <v>3.50110581428575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>299111.6395274466</v>
+        <v>373716.509112603</v>
       </c>
     </row>
     <row r="3">
@@ -6516,28 +6516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.9612552002255</v>
+        <v>298.0695927815972</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.5890874744565</v>
+        <v>407.8319667461424</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.5153219331454</v>
+        <v>368.90905623565</v>
       </c>
       <c r="AD3" t="n">
-        <v>237961.2552002255</v>
+        <v>298069.5927815972</v>
       </c>
       <c r="AE3" t="n">
-        <v>325589.0874744565</v>
+        <v>407831.9667461424</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.59343900524321e-06</v>
+        <v>3.548277427730875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>294515.3219331454</v>
+        <v>368909.05623565</v>
       </c>
     </row>
   </sheetData>
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.752138437147</v>
+        <v>680.4765296763303</v>
       </c>
       <c r="AB2" t="n">
-        <v>785.0329879676107</v>
+        <v>931.0580084089044</v>
       </c>
       <c r="AC2" t="n">
-        <v>710.1105413966999</v>
+        <v>842.1991388344798</v>
       </c>
       <c r="AD2" t="n">
-        <v>573752.138437147</v>
+        <v>680476.5296763303</v>
       </c>
       <c r="AE2" t="n">
-        <v>785032.9879676107</v>
+        <v>931058.0084089043</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.771156385982739e-07</v>
+        <v>1.84749474950481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.94401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>710110.5413966998</v>
+        <v>842199.1388344797</v>
       </c>
     </row>
     <row r="3">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>425.1878304383238</v>
+        <v>508.2431018768951</v>
       </c>
       <c r="AB3" t="n">
-        <v>581.7607475689238</v>
+        <v>695.4006340911508</v>
       </c>
       <c r="AC3" t="n">
-        <v>526.2383183272823</v>
+        <v>629.0325735744105</v>
       </c>
       <c r="AD3" t="n">
-        <v>425187.8304383238</v>
+        <v>508243.1018768951</v>
       </c>
       <c r="AE3" t="n">
-        <v>581760.7475689237</v>
+        <v>695400.6340911508</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.208945195739314e-06</v>
+        <v>2.285829653460008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.88411458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>526238.3183272823</v>
+        <v>629032.5735744105</v>
       </c>
     </row>
     <row r="4">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.5464845463186</v>
+        <v>462.7246151658491</v>
       </c>
       <c r="AB4" t="n">
-        <v>535.7311739680478</v>
+        <v>633.1202324391911</v>
       </c>
       <c r="AC4" t="n">
-        <v>484.6017426279616</v>
+        <v>572.6961260450211</v>
       </c>
       <c r="AD4" t="n">
-        <v>391546.4845463186</v>
+        <v>462724.615165849</v>
       </c>
       <c r="AE4" t="n">
-        <v>535731.1739680477</v>
+        <v>633120.2324391911</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.295905209225125e-06</v>
+        <v>2.450250487581931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>484601.7426279616</v>
+        <v>572696.1260450211</v>
       </c>
     </row>
     <row r="5">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.548523683423</v>
+        <v>432.811905648974</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.6866404988028</v>
+        <v>592.1923436225953</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.4744418266568</v>
+        <v>535.6743374944285</v>
       </c>
       <c r="AD5" t="n">
-        <v>361548.5236834229</v>
+        <v>432811.905648974</v>
       </c>
       <c r="AE5" t="n">
-        <v>494686.6404988028</v>
+        <v>592192.3436225953</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.342184974244816e-06</v>
+        <v>2.537754585873565e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.60807291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>447474.4418266568</v>
+        <v>535674.3374944285</v>
       </c>
     </row>
     <row r="6">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.5633279286261</v>
+        <v>417.6561176935849</v>
       </c>
       <c r="AB6" t="n">
-        <v>474.183234566911</v>
+        <v>571.4555259158567</v>
       </c>
       <c r="AC6" t="n">
-        <v>428.9278521801939</v>
+        <v>516.9166125653145</v>
       </c>
       <c r="AD6" t="n">
-        <v>346563.327928626</v>
+        <v>417656.1176935849</v>
       </c>
       <c r="AE6" t="n">
-        <v>474183.2345669111</v>
+        <v>571455.5259158567</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370206486570596e-06</v>
+        <v>2.590736643319017e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.3671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>428927.8521801939</v>
+        <v>516916.6125653145</v>
       </c>
     </row>
     <row r="7">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>333.4139082490661</v>
+        <v>392.8001493955765</v>
       </c>
       <c r="AB7" t="n">
-        <v>456.1916184498833</v>
+        <v>537.4464935225922</v>
       </c>
       <c r="AC7" t="n">
-        <v>412.6533306539833</v>
+        <v>486.1533544916863</v>
       </c>
       <c r="AD7" t="n">
-        <v>333413.9082490662</v>
+        <v>392800.1493955764</v>
       </c>
       <c r="AE7" t="n">
-        <v>456191.6184498832</v>
+        <v>537446.4935225921</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391503793120506e-06</v>
+        <v>2.631004816783109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>412653.3306539833</v>
+        <v>486153.3544916863</v>
       </c>
     </row>
     <row r="8">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>331.2745327284301</v>
+        <v>390.6607738749403</v>
       </c>
       <c r="AB8" t="n">
-        <v>453.2644304799621</v>
+        <v>534.519305552671</v>
       </c>
       <c r="AC8" t="n">
-        <v>410.0055093955775</v>
+        <v>483.5055332332804</v>
       </c>
       <c r="AD8" t="n">
-        <v>331274.5327284301</v>
+        <v>390660.7738749404</v>
       </c>
       <c r="AE8" t="n">
-        <v>453264.4304799621</v>
+        <v>534519.305552671</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.394901790345323e-06</v>
+        <v>2.637429626481875e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>410005.5093955775</v>
+        <v>483505.5332332804</v>
       </c>
     </row>
     <row r="9">
@@ -7555,28 +7555,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>332.215719672958</v>
+        <v>391.6019608194683</v>
       </c>
       <c r="AB9" t="n">
-        <v>454.5522039797028</v>
+        <v>535.8070790524117</v>
       </c>
       <c r="AC9" t="n">
-        <v>411.1703795999043</v>
+        <v>484.6704034376072</v>
       </c>
       <c r="AD9" t="n">
-        <v>332215.719672958</v>
+        <v>391601.9608194683</v>
       </c>
       <c r="AE9" t="n">
-        <v>454552.2039797028</v>
+        <v>535807.0790524117</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.394566776534426e-06</v>
+        <v>2.636796194539742e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>411170.3795999043</v>
+        <v>484670.4034376072</v>
       </c>
     </row>
   </sheetData>
@@ -7852,28 +7852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.1007766452504</v>
+        <v>284.8983105540459</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.3610574681629</v>
+        <v>389.810437326445</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.8360723344641</v>
+        <v>352.6074762903933</v>
       </c>
       <c r="AD2" t="n">
-        <v>226100.7766452504</v>
+        <v>284898.3105540459</v>
       </c>
       <c r="AE2" t="n">
-        <v>309361.0574681628</v>
+        <v>389810.437326445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.602860498319518e-06</v>
+        <v>3.674664680425484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.63411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>279836.0723344641</v>
+        <v>352607.4762903933</v>
       </c>
     </row>
   </sheetData>
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.5556529146297</v>
+        <v>538.2374362352081</v>
       </c>
       <c r="AB2" t="n">
-        <v>627.4160743654388</v>
+        <v>736.4402056168359</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.5363648119916</v>
+        <v>666.1553859930845</v>
       </c>
       <c r="AD2" t="n">
-        <v>458555.6529146297</v>
+        <v>538237.4362352081</v>
       </c>
       <c r="AE2" t="n">
-        <v>627416.0743654388</v>
+        <v>736440.2056168359</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.13126788144519e-06</v>
+        <v>2.21726941358491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>567536.3648119916</v>
+        <v>666155.3859930844</v>
       </c>
     </row>
     <row r="3">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>362.0502605570608</v>
+        <v>430.3367532109822</v>
       </c>
       <c r="AB3" t="n">
-        <v>495.3731390243827</v>
+        <v>588.805730860916</v>
       </c>
       <c r="AC3" t="n">
-        <v>448.0954218964621</v>
+        <v>532.6109383015829</v>
       </c>
       <c r="AD3" t="n">
-        <v>362050.2605570608</v>
+        <v>430336.7532109822</v>
       </c>
       <c r="AE3" t="n">
-        <v>495373.1390243827</v>
+        <v>588805.730860916</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.334324893416417e-06</v>
+        <v>2.615258350813975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>448095.4218964621</v>
+        <v>532610.9383015829</v>
       </c>
     </row>
     <row r="4">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.1446193246784</v>
+        <v>391.3457711240281</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.1407242944832</v>
+        <v>535.4565490088188</v>
       </c>
       <c r="AC4" t="n">
-        <v>399.9434341162209</v>
+        <v>484.3533274894028</v>
       </c>
       <c r="AD4" t="n">
-        <v>323144.6193246784</v>
+        <v>391345.7711240281</v>
       </c>
       <c r="AE4" t="n">
-        <v>442140.7242944831</v>
+        <v>535456.5490088188</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413562406664194e-06</v>
+        <v>2.7705627817224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>399943.4341162209</v>
+        <v>484353.3274894028</v>
       </c>
     </row>
     <row r="5">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>308.2303958275828</v>
+        <v>365.2069386694188</v>
       </c>
       <c r="AB5" t="n">
-        <v>421.7344257366534</v>
+        <v>499.6922452805206</v>
       </c>
       <c r="AC5" t="n">
-        <v>381.4846840523305</v>
+        <v>452.0023187134179</v>
       </c>
       <c r="AD5" t="n">
-        <v>308230.3958275828</v>
+        <v>365206.9386694188</v>
       </c>
       <c r="AE5" t="n">
-        <v>421734.4257366534</v>
+        <v>499692.2452805206</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.448118421075863e-06</v>
+        <v>2.838292092407425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.18489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>381484.6840523305</v>
+        <v>452002.3187134179</v>
       </c>
     </row>
     <row r="6">
@@ -8573,28 +8573,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>303.7368668329187</v>
+        <v>360.7134096747547</v>
       </c>
       <c r="AB6" t="n">
-        <v>415.5861811256459</v>
+        <v>493.5440006695131</v>
       </c>
       <c r="AC6" t="n">
-        <v>375.923219277882</v>
+        <v>446.4408539389694</v>
       </c>
       <c r="AD6" t="n">
-        <v>303736.8668329187</v>
+        <v>360713.4096747547</v>
       </c>
       <c r="AE6" t="n">
-        <v>415586.1811256459</v>
+        <v>493544.0006695131</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455333139707528e-06</v>
+        <v>2.852432841218553e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.12630208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>375923.219277882</v>
+        <v>446440.8539389694</v>
       </c>
     </row>
   </sheetData>
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.6194582119233</v>
+        <v>602.1406885825063</v>
       </c>
       <c r="AB2" t="n">
-        <v>712.3345108350427</v>
+        <v>823.8754546909328</v>
       </c>
       <c r="AC2" t="n">
-        <v>644.3503048887106</v>
+        <v>745.2459376116926</v>
       </c>
       <c r="AD2" t="n">
-        <v>520619.4582119233</v>
+        <v>602140.6885825063</v>
       </c>
       <c r="AE2" t="n">
-        <v>712334.5108350427</v>
+        <v>823875.4546909328</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.049744551064759e-06</v>
+        <v>2.01834708284486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>644350.3048887106</v>
+        <v>745245.9376116926</v>
       </c>
     </row>
     <row r="3">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.824499613776</v>
+        <v>463.7851040643751</v>
       </c>
       <c r="AB3" t="n">
-        <v>538.8480546822749</v>
+        <v>634.5712401356227</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.4211526213925</v>
+        <v>574.0086516034072</v>
       </c>
       <c r="AD3" t="n">
-        <v>393824.499613776</v>
+        <v>463785.1040643751</v>
       </c>
       <c r="AE3" t="n">
-        <v>538848.0546822749</v>
+        <v>634571.2401356227</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.267834984093353e-06</v>
+        <v>2.437670230417436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.51953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>487421.1526213925</v>
+        <v>574008.6516034072</v>
       </c>
     </row>
     <row r="4">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>352.3117424103233</v>
+        <v>422.1870060063509</v>
       </c>
       <c r="AB4" t="n">
-        <v>482.0484688629178</v>
+        <v>577.6548871940679</v>
       </c>
       <c r="AC4" t="n">
-        <v>436.0424395539155</v>
+        <v>522.5243155039916</v>
       </c>
       <c r="AD4" t="n">
-        <v>352311.7424103233</v>
+        <v>422187.0060063509</v>
       </c>
       <c r="AE4" t="n">
-        <v>482048.4688629179</v>
+        <v>577654.8871940679</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.351395284129345e-06</v>
+        <v>2.598331876765797e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>436042.4395539155</v>
+        <v>522524.3155039916</v>
       </c>
     </row>
     <row r="5">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.4743618195109</v>
+        <v>404.1790332149462</v>
       </c>
       <c r="AB5" t="n">
-        <v>457.6425778088755</v>
+        <v>553.0155843651785</v>
       </c>
       <c r="AC5" t="n">
-        <v>413.9658124881876</v>
+        <v>500.2365531556126</v>
       </c>
       <c r="AD5" t="n">
-        <v>334474.3618195109</v>
+        <v>404179.0332149462</v>
       </c>
       <c r="AE5" t="n">
-        <v>457642.5778088755</v>
+        <v>553015.5843651785</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.393931084468553e-06</v>
+        <v>2.680115591140911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.38671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>413965.8124881876</v>
+        <v>500236.5531556125</v>
       </c>
     </row>
     <row r="6">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.2631841168863</v>
+        <v>377.4926599554602</v>
       </c>
       <c r="AB6" t="n">
-        <v>436.8299734063459</v>
+        <v>516.5021111518527</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.1395338391617</v>
+        <v>467.207874578785</v>
       </c>
       <c r="AD6" t="n">
-        <v>319263.1841168863</v>
+        <v>377492.6599554602</v>
       </c>
       <c r="AE6" t="n">
-        <v>436829.9734063459</v>
+        <v>516502.1111518526</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.421841394719782e-06</v>
+        <v>2.733778830659252e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.15885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>395139.5338391617</v>
+        <v>467207.874578785</v>
       </c>
     </row>
     <row r="7">
@@ -9400,28 +9400,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.7383388304368</v>
+        <v>375.9678146690107</v>
       </c>
       <c r="AB7" t="n">
-        <v>434.7436128139994</v>
+        <v>514.4157505595061</v>
       </c>
       <c r="AC7" t="n">
-        <v>393.2522925735233</v>
+        <v>465.3206333131465</v>
       </c>
       <c r="AD7" t="n">
-        <v>317738.3388304368</v>
+        <v>375967.8146690107</v>
       </c>
       <c r="AE7" t="n">
-        <v>434743.6128139994</v>
+        <v>514415.7505595061</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425107754172764e-06</v>
+        <v>2.740059070043931e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.1328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>393252.2925735233</v>
+        <v>465320.6333131465</v>
       </c>
     </row>
   </sheetData>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>642.131249225532</v>
+        <v>750.8816073252864</v>
       </c>
       <c r="AB2" t="n">
-        <v>878.5923040217409</v>
+        <v>1027.389341701017</v>
       </c>
       <c r="AC2" t="n">
-        <v>794.7406876379488</v>
+        <v>929.336744879069</v>
       </c>
       <c r="AD2" t="n">
-        <v>642131.2492255319</v>
+        <v>750881.6073252864</v>
       </c>
       <c r="AE2" t="n">
-        <v>878592.3040217409</v>
+        <v>1027389.341701017</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.111963054539136e-07</v>
+        <v>1.697489606079095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.80989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>794740.6876379488</v>
+        <v>929336.744879069</v>
       </c>
     </row>
     <row r="3">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.7031272484975</v>
+        <v>555.1825231234923</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.0367846577818</v>
+        <v>759.6252210618592</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.5708178413468</v>
+        <v>687.1276561044084</v>
       </c>
       <c r="AD3" t="n">
-        <v>470703.1272484976</v>
+        <v>555182.5231234923</v>
       </c>
       <c r="AE3" t="n">
-        <v>644036.7846577818</v>
+        <v>759625.2210618592</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.150594735736747e-06</v>
+        <v>2.14347072418111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.31380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>582570.8178413467</v>
+        <v>687127.6561044084</v>
       </c>
     </row>
     <row r="4">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.6607026934277</v>
+        <v>492.1325839836244</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.1982875486904</v>
+        <v>673.3575127636905</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.3976088774007</v>
+        <v>609.0932168087278</v>
       </c>
       <c r="AD4" t="n">
-        <v>419660.7026934277</v>
+        <v>492132.5839836244</v>
       </c>
       <c r="AE4" t="n">
-        <v>574198.2875486903</v>
+        <v>673357.5127636904</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244518915951889e-06</v>
+        <v>2.318444348108701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>519397.6088774006</v>
+        <v>609093.2168087278</v>
       </c>
     </row>
     <row r="5">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.3231950985266</v>
+        <v>459.880327734744</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.9526830271982</v>
+        <v>629.2285528948476</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.3747427523438</v>
+        <v>569.1758629343831</v>
       </c>
       <c r="AD5" t="n">
-        <v>387323.1950985267</v>
+        <v>459880.327734744</v>
       </c>
       <c r="AE5" t="n">
-        <v>529952.6830271982</v>
+        <v>629228.5528948476</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.292280961502174e-06</v>
+        <v>2.407421416388513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.85546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>479374.7427523438</v>
+        <v>569175.8629343831</v>
       </c>
     </row>
     <row r="6">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.2774703459236</v>
+        <v>444.8346029821408</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.3664586501571</v>
+        <v>608.6423285178065</v>
       </c>
       <c r="AC6" t="n">
-        <v>460.7532387369</v>
+        <v>550.5543589189394</v>
       </c>
       <c r="AD6" t="n">
-        <v>372277.4703459236</v>
+        <v>444834.6029821408</v>
       </c>
       <c r="AE6" t="n">
-        <v>509366.4586501571</v>
+        <v>608642.3285178065</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.325855561994912e-06</v>
+        <v>2.46996835059309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.55598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>460753.2387369</v>
+        <v>550554.3589189395</v>
       </c>
     </row>
     <row r="7">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>359.7291088081334</v>
+        <v>432.1156492437585</v>
       </c>
       <c r="AB7" t="n">
-        <v>492.1972367995124</v>
+        <v>591.2396948923149</v>
       </c>
       <c r="AC7" t="n">
-        <v>445.2226233225267</v>
+        <v>534.8126082219151</v>
       </c>
       <c r="AD7" t="n">
-        <v>359729.1088081335</v>
+        <v>432115.6492437585</v>
       </c>
       <c r="AE7" t="n">
-        <v>492197.2367995124</v>
+        <v>591239.6948923148</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.348466067302214e-06</v>
+        <v>2.512090007054617e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.36067708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>445222.6233225267</v>
+        <v>534812.6082219151</v>
       </c>
     </row>
     <row r="8">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>349.2854514819735</v>
+        <v>421.6719919175985</v>
       </c>
       <c r="AB8" t="n">
-        <v>477.9077641042166</v>
+        <v>576.950222197019</v>
       </c>
       <c r="AC8" t="n">
-        <v>432.296917845869</v>
+        <v>521.8869027452573</v>
       </c>
       <c r="AD8" t="n">
-        <v>349285.4514819735</v>
+        <v>421671.9919175985</v>
       </c>
       <c r="AE8" t="n">
-        <v>477907.7641042166</v>
+        <v>576950.222197019</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.35935957818388e-06</v>
+        <v>2.532383791593313e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.26953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>432296.917845869</v>
+        <v>521886.9027452574</v>
       </c>
     </row>
     <row r="9">
@@ -10439,28 +10439,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>344.7503064933002</v>
+        <v>405.214673198699</v>
       </c>
       <c r="AB9" t="n">
-        <v>471.7025786542378</v>
+        <v>554.4325926801606</v>
       </c>
       <c r="AC9" t="n">
-        <v>426.6839465862037</v>
+        <v>501.5183241857964</v>
       </c>
       <c r="AD9" t="n">
-        <v>344750.3064933002</v>
+        <v>405214.673198699</v>
       </c>
       <c r="AE9" t="n">
-        <v>471702.5786542377</v>
+        <v>554432.5926801607</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.367382660712278e-06</v>
+        <v>2.547330185821596e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.20442708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>426683.9465862036</v>
+        <v>501518.3241857964</v>
       </c>
     </row>
   </sheetData>
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.4546724991681</v>
+        <v>477.2980569229313</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.5515056097659</v>
+        <v>653.0602583861053</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.3893970042249</v>
+        <v>590.733103901564</v>
       </c>
       <c r="AD2" t="n">
-        <v>399454.6724991681</v>
+        <v>477298.0569229313</v>
       </c>
       <c r="AE2" t="n">
-        <v>546551.5056097659</v>
+        <v>653060.2583861053</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.221859075052274e-06</v>
+        <v>2.449213284081481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>494389.3970042249</v>
+        <v>590733.103901564</v>
       </c>
     </row>
     <row r="3">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.810109480874</v>
+        <v>384.5330104155283</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.8418125842252</v>
+        <v>526.1350292496591</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.3411202955031</v>
+        <v>475.9214404932223</v>
       </c>
       <c r="AD3" t="n">
-        <v>317810.109480874</v>
+        <v>384533.0104155283</v>
       </c>
       <c r="AE3" t="n">
-        <v>434841.8125842252</v>
+        <v>526135.029249659</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.410089974371307e-06</v>
+        <v>2.826521623889046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.75130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>393341.1202955031</v>
+        <v>475921.4404932223</v>
       </c>
     </row>
     <row r="4">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.0074823192803</v>
+        <v>349.6099892733765</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.2740080039346</v>
+        <v>478.3518110280111</v>
       </c>
       <c r="AC4" t="n">
-        <v>363.8815412751545</v>
+        <v>432.6985855544803</v>
       </c>
       <c r="AD4" t="n">
-        <v>294007.4823192803</v>
+        <v>349609.9892733765</v>
       </c>
       <c r="AE4" t="n">
-        <v>402274.0080039346</v>
+        <v>478351.8110280111</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.476931670329627e-06</v>
+        <v>2.960505626638832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.21744791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>363881.5412751544</v>
+        <v>432698.5855544803</v>
       </c>
     </row>
     <row r="5">
@@ -11054,28 +11054,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.9699241607693</v>
+        <v>344.5724311148656</v>
       </c>
       <c r="AB5" t="n">
-        <v>395.381398690079</v>
+        <v>471.4592017141556</v>
       </c>
       <c r="AC5" t="n">
-        <v>357.6467529203754</v>
+        <v>426.4637971997013</v>
       </c>
       <c r="AD5" t="n">
-        <v>288969.9241607693</v>
+        <v>344572.4311148656</v>
       </c>
       <c r="AE5" t="n">
-        <v>395381.398690079</v>
+        <v>471459.2017141556</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.491414886247482e-06</v>
+        <v>2.989537194637548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.11328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>357646.7529203754</v>
+        <v>426463.7971997013</v>
       </c>
     </row>
   </sheetData>
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.6174951017568</v>
+        <v>384.5743299975607</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.6830014438295</v>
+        <v>526.1915645246871</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.8157114814892</v>
+        <v>475.9725801209494</v>
       </c>
       <c r="AD2" t="n">
-        <v>320617.4951017568</v>
+        <v>384574.3299975607</v>
       </c>
       <c r="AE2" t="n">
-        <v>438683.0014438296</v>
+        <v>526191.5645246871</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.379148013759377e-06</v>
+        <v>2.885263893828544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.51953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>396815.7114814892</v>
+        <v>475972.5801209494</v>
       </c>
     </row>
     <row r="3">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.3877981071792</v>
+        <v>332.0886999478192</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.2200258042403</v>
+        <v>454.3784099880532</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.173061938026</v>
+        <v>411.0131722628963</v>
       </c>
       <c r="AD3" t="n">
-        <v>268387.7981071792</v>
+        <v>332088.6999478192</v>
       </c>
       <c r="AE3" t="n">
-        <v>367220.0258042403</v>
+        <v>454378.4099880532</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.533594561488847e-06</v>
+        <v>3.208375730443967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.25651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>332173.061938026</v>
+        <v>411013.1722628963</v>
       </c>
     </row>
     <row r="4">
@@ -11563,28 +11563,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.5528689527095</v>
+        <v>318.7792034956208</v>
       </c>
       <c r="AB4" t="n">
-        <v>363.3411506668474</v>
+        <v>436.1677697686124</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.6643811997105</v>
+        <v>394.5405299872049</v>
       </c>
       <c r="AD4" t="n">
-        <v>265552.8689527095</v>
+        <v>318779.2034956207</v>
       </c>
       <c r="AE4" t="n">
-        <v>363341.1506668474</v>
+        <v>436167.7697686124</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.545923770878409e-06</v>
+        <v>3.234169207530005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.16536458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>328664.3811997105</v>
+        <v>394540.5299872049</v>
       </c>
     </row>
   </sheetData>
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.3365974326746</v>
+        <v>325.9289086500386</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.6769943150233</v>
+        <v>445.9503117836168</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.1590495944463</v>
+        <v>403.3894399221812</v>
       </c>
       <c r="AD2" t="n">
-        <v>264336.5974326746</v>
+        <v>325928.9086500386</v>
       </c>
       <c r="AE2" t="n">
-        <v>361676.9943150232</v>
+        <v>445950.3117836168</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.506370762639563e-06</v>
+        <v>3.274632773907637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.85546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>327159.0495944463</v>
+        <v>403389.4399221812</v>
       </c>
     </row>
     <row r="3">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.4140235436746</v>
+        <v>308.8357425604495</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.5227821486641</v>
+        <v>422.5626878425747</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.2146429402053</v>
+        <v>382.2338979853358</v>
       </c>
       <c r="AD3" t="n">
-        <v>247414.0235436746</v>
+        <v>308835.7425604495</v>
       </c>
       <c r="AE3" t="n">
-        <v>338522.7821486641</v>
+        <v>422562.6878425747</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580371387493472e-06</v>
+        <v>3.435499459219317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>306214.6429402053</v>
+        <v>382233.8979853358</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.5028610407778</v>
+        <v>280.4918737410034</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.8064747261775</v>
+        <v>383.781356080568</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.6207339804845</v>
+        <v>347.1538020967541</v>
       </c>
       <c r="AD2" t="n">
-        <v>223502.8610407778</v>
+        <v>280491.8737410033</v>
       </c>
       <c r="AE2" t="n">
-        <v>305806.4747261775</v>
+        <v>383781.356080568</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.594628110917507e-06</v>
+        <v>3.792865958609142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>276620.7339804845</v>
+        <v>347153.8020967541</v>
       </c>
     </row>
   </sheetData>
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.9299588148311</v>
+        <v>575.0306683694881</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.7660750165784</v>
+        <v>786.7823290257996</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.7034882080063</v>
+        <v>711.6929277995108</v>
       </c>
       <c r="AD2" t="n">
-        <v>482929.9588148311</v>
+        <v>575030.6683694881</v>
       </c>
       <c r="AE2" t="n">
-        <v>660766.0750165784</v>
+        <v>786782.3290257996</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.090136297679616e-06</v>
+        <v>2.115494728842413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.70052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>597703.4882080064</v>
+        <v>711692.9277995108</v>
       </c>
     </row>
     <row r="3">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.6147580047213</v>
+        <v>446.6690444656222</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.6691710894374</v>
+        <v>611.1522922853522</v>
       </c>
       <c r="AC3" t="n">
-        <v>467.3589905503968</v>
+        <v>552.8247752672669</v>
       </c>
       <c r="AD3" t="n">
-        <v>377614.7580047213</v>
+        <v>446669.0444656222</v>
       </c>
       <c r="AE3" t="n">
-        <v>516669.1710894374</v>
+        <v>611152.2922853522</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301196335620161e-06</v>
+        <v>2.525073236303253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>467358.9905503967</v>
+        <v>552824.7752672669</v>
       </c>
     </row>
     <row r="4">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>338.0265321687432</v>
+        <v>407.1660699756646</v>
       </c>
       <c r="AB4" t="n">
-        <v>462.5028139913907</v>
+        <v>557.1025798399548</v>
       </c>
       <c r="AC4" t="n">
-        <v>418.362194550828</v>
+        <v>503.9334915184103</v>
       </c>
       <c r="AD4" t="n">
-        <v>338026.5321687432</v>
+        <v>407166.0699756646</v>
       </c>
       <c r="AE4" t="n">
-        <v>462502.8139913908</v>
+        <v>557102.5798399549</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381159359442731e-06</v>
+        <v>2.680247736738668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>418362.194550828</v>
+        <v>503933.4915184103</v>
       </c>
     </row>
     <row r="5">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>320.2965602091738</v>
+        <v>389.2655058155031</v>
       </c>
       <c r="AB5" t="n">
-        <v>438.2438841651496</v>
+        <v>532.6102382388666</v>
       </c>
       <c r="AC5" t="n">
-        <v>396.4185029395813</v>
+        <v>481.7786646245127</v>
       </c>
       <c r="AD5" t="n">
-        <v>320296.5602091738</v>
+        <v>389265.5058155031</v>
       </c>
       <c r="AE5" t="n">
-        <v>438243.8841651495</v>
+        <v>532610.2382388666</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.423356595536291e-06</v>
+        <v>2.762134772990608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.26302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>396418.5029395813</v>
+        <v>481778.6646245127</v>
       </c>
     </row>
     <row r="6">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>311.1112192729902</v>
+        <v>368.7275902873091</v>
       </c>
       <c r="AB6" t="n">
-        <v>425.6760954676205</v>
+        <v>504.5093561443056</v>
       </c>
       <c r="AC6" t="n">
-        <v>385.0501663563423</v>
+        <v>456.3596912772209</v>
       </c>
       <c r="AD6" t="n">
-        <v>311111.2192729902</v>
+        <v>368727.5902873091</v>
       </c>
       <c r="AE6" t="n">
-        <v>425676.0954676205</v>
+        <v>504509.3561443056</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43768494524834e-06</v>
+        <v>2.789940056011978e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>385050.1663563423</v>
+        <v>456359.6912772208</v>
       </c>
     </row>
     <row r="7">
@@ -21863,28 +21863,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>310.3359491025844</v>
+        <v>367.9523201169034</v>
       </c>
       <c r="AB7" t="n">
-        <v>424.6153366179652</v>
+        <v>503.4485972946504</v>
       </c>
       <c r="AC7" t="n">
-        <v>384.0906448425137</v>
+        <v>455.4001697633923</v>
       </c>
       <c r="AD7" t="n">
-        <v>310335.9491025844</v>
+        <v>367952.3201169033</v>
       </c>
       <c r="AE7" t="n">
-        <v>424615.3366179653</v>
+        <v>503448.5972946504</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.441870202037084e-06</v>
+        <v>2.798061874076639e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.11328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>384090.6448425137</v>
+        <v>455400.1697633923</v>
       </c>
     </row>
   </sheetData>
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>614.9031953671029</v>
+        <v>710.712589654078</v>
       </c>
       <c r="AB2" t="n">
-        <v>841.3376795156795</v>
+        <v>972.4283195912815</v>
       </c>
       <c r="AC2" t="n">
-        <v>761.0415922075518</v>
+        <v>879.6211255812073</v>
       </c>
       <c r="AD2" t="n">
-        <v>614903.1953671029</v>
+        <v>710712.589654078</v>
       </c>
       <c r="AE2" t="n">
-        <v>841337.6795156795</v>
+        <v>972428.3195912815</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.416689389886605e-07</v>
+        <v>1.766940279639036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.39973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>761041.5922075518</v>
+        <v>879621.1255812072</v>
       </c>
     </row>
     <row r="3">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.7512483483318</v>
+        <v>525.6723220816297</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.8424760824596</v>
+        <v>719.2480620981963</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.5901415230368</v>
+        <v>650.6040365225391</v>
       </c>
       <c r="AD3" t="n">
-        <v>453751.2483483318</v>
+        <v>525672.3220816297</v>
       </c>
       <c r="AE3" t="n">
-        <v>620842.4760824596</v>
+        <v>719248.0620981964</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178930699471002e-06</v>
+        <v>2.212136403304922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>561590.1415230368</v>
+        <v>650604.0365225391</v>
       </c>
     </row>
     <row r="4">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.7991489462561</v>
+        <v>478.6348818249824</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.6005423001046</v>
+        <v>654.8893611936438</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.4793677367494</v>
+        <v>592.3876397043128</v>
       </c>
       <c r="AD4" t="n">
-        <v>406799.1489462561</v>
+        <v>478634.8818249824</v>
       </c>
       <c r="AE4" t="n">
-        <v>556600.5423001046</v>
+        <v>654889.3611936438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267420487152148e-06</v>
+        <v>2.3781779532773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>503479.3677367494</v>
+        <v>592387.6397043129</v>
       </c>
     </row>
     <row r="5">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.6616215762317</v>
+        <v>445.5826058009785</v>
       </c>
       <c r="AB5" t="n">
-        <v>511.2603154279072</v>
+        <v>609.6657789740956</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.4663484818263</v>
+        <v>551.4801327001021</v>
       </c>
       <c r="AD5" t="n">
-        <v>373661.6215762317</v>
+        <v>445582.6058009785</v>
       </c>
       <c r="AE5" t="n">
-        <v>511260.3154279072</v>
+        <v>609665.7789740956</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319280721970106e-06</v>
+        <v>2.475488094896501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.70572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>462466.3484818264</v>
+        <v>551480.1327001021</v>
       </c>
     </row>
     <row r="6">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>359.8917754053842</v>
+        <v>431.6421674295389</v>
       </c>
       <c r="AB6" t="n">
-        <v>492.4198044142147</v>
+        <v>590.5918561855561</v>
       </c>
       <c r="AC6" t="n">
-        <v>445.4239493964574</v>
+        <v>534.2265983320821</v>
       </c>
       <c r="AD6" t="n">
-        <v>359891.7754053843</v>
+        <v>431642.1674295389</v>
       </c>
       <c r="AE6" t="n">
-        <v>492419.8044142147</v>
+        <v>590591.8561855562</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347630667353207e-06</v>
+        <v>2.528683712112852e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>445423.9493964574</v>
+        <v>534226.598332082</v>
       </c>
     </row>
     <row r="7">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>346.6405710639974</v>
+        <v>418.3909630881519</v>
       </c>
       <c r="AB7" t="n">
-        <v>474.2889220324527</v>
+        <v>572.460973803794</v>
       </c>
       <c r="AC7" t="n">
-        <v>429.0234529823575</v>
+        <v>517.8261019179822</v>
       </c>
       <c r="AD7" t="n">
-        <v>346640.5710639973</v>
+        <v>418390.9630881519</v>
       </c>
       <c r="AE7" t="n">
-        <v>474288.9220324527</v>
+        <v>572460.973803794</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.369812423782663e-06</v>
+        <v>2.570305387508073e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>429023.4529823575</v>
+        <v>517826.1019179822</v>
       </c>
     </row>
     <row r="8">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>338.9729435315714</v>
+        <v>398.9071865607448</v>
       </c>
       <c r="AB8" t="n">
-        <v>463.7977357707348</v>
+        <v>545.8024111954402</v>
       </c>
       <c r="AC8" t="n">
-        <v>419.5335308129856</v>
+        <v>493.711795109442</v>
       </c>
       <c r="AD8" t="n">
-        <v>338972.9435315714</v>
+        <v>398907.1865607448</v>
       </c>
       <c r="AE8" t="n">
-        <v>463797.7357707348</v>
+        <v>545802.4111954402</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377214250527038e-06</v>
+        <v>2.58419411769343e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.21744791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>419533.5308129856</v>
+        <v>493711.795109442</v>
       </c>
     </row>
     <row r="9">
@@ -22902,28 +22902,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>338.0583659821515</v>
+        <v>397.9926090113249</v>
       </c>
       <c r="AB9" t="n">
-        <v>462.5463704193047</v>
+        <v>544.5510458440101</v>
       </c>
       <c r="AC9" t="n">
-        <v>418.4015940143937</v>
+        <v>492.57985831085</v>
       </c>
       <c r="AD9" t="n">
-        <v>338058.3659821515</v>
+        <v>397992.6090113249</v>
       </c>
       <c r="AE9" t="n">
-        <v>462546.3704193047</v>
+        <v>544551.0458440101</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.381959011260611e-06</v>
+        <v>2.593097149863531e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.17838541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>418401.5940143937</v>
+        <v>492579.85831085</v>
       </c>
     </row>
   </sheetData>
@@ -23199,28 +23199,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.6884020118613</v>
+        <v>271.7244118999259</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.1684341981325</v>
+        <v>371.7853279964879</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.0477976712486</v>
+        <v>336.3026580964874</v>
       </c>
       <c r="AD2" t="n">
-        <v>207688.4020118613</v>
+        <v>271724.4118999259</v>
       </c>
       <c r="AE2" t="n">
-        <v>284168.4341981325</v>
+        <v>371785.3279964879</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.53912190859732e-06</v>
+        <v>3.849227090161077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.89713541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>257047.7976712486</v>
+        <v>336302.6580964874</v>
       </c>
     </row>
   </sheetData>
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.5704264363051</v>
+        <v>419.1827144021339</v>
       </c>
       <c r="AB2" t="n">
-        <v>470.0882147076223</v>
+        <v>573.544282881187</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.2236552688793</v>
+        <v>518.8060214974626</v>
       </c>
       <c r="AD2" t="n">
-        <v>343570.4264363051</v>
+        <v>419182.7144021339</v>
       </c>
       <c r="AE2" t="n">
-        <v>470088.2147076223</v>
+        <v>573544.2828811869</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.321865709100295e-06</v>
+        <v>2.722096188605199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.87109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>425223.6552688793</v>
+        <v>518806.0214974625</v>
       </c>
     </row>
     <row r="3">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.2924848607759</v>
+        <v>349.0055745062411</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.9815198857697</v>
+        <v>477.5248240787189</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.8576695668631</v>
+        <v>431.9505250789451</v>
       </c>
       <c r="AD3" t="n">
-        <v>284292.4848607759</v>
+        <v>349005.5745062411</v>
       </c>
       <c r="AE3" t="n">
-        <v>388981.5198857697</v>
+        <v>477524.8240787189</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.49248128232185e-06</v>
+        <v>3.073442016237867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.39973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>351857.6695668631</v>
+        <v>431950.5250789451</v>
       </c>
     </row>
     <row r="4">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.9042499719732</v>
+        <v>326.9740743522388</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.3996344974452</v>
+        <v>447.3803536068237</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.7628974506868</v>
+        <v>404.6830005608576</v>
       </c>
       <c r="AD4" t="n">
-        <v>272904.2499719732</v>
+        <v>326974.0743522388</v>
       </c>
       <c r="AE4" t="n">
-        <v>373399.6344974452</v>
+        <v>447380.3536068237</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524618672071087e-06</v>
+        <v>3.139622011335598e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.15885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>337762.8974506867</v>
+        <v>404683.0005608576</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.2826818505021</v>
+        <v>512.2024587715473</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.785795104956</v>
+        <v>700.8180008689123</v>
       </c>
       <c r="AC2" t="n">
-        <v>522.6427297475948</v>
+        <v>633.9329144702244</v>
       </c>
       <c r="AD2" t="n">
-        <v>422282.681850502</v>
+        <v>512202.4587715473</v>
       </c>
       <c r="AE2" t="n">
-        <v>577785.795104956</v>
+        <v>700818.0008689123</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176503391778072e-06</v>
+        <v>2.330869827249323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.91927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>522642.7297475948</v>
+        <v>633932.9144702244</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>333.4241447811037</v>
+        <v>412.0826143733753</v>
       </c>
       <c r="AB3" t="n">
-        <v>456.2056245246209</v>
+        <v>563.8296127875332</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.6660000086057</v>
+        <v>510.0185058829219</v>
       </c>
       <c r="AD3" t="n">
-        <v>333424.1447811037</v>
+        <v>412082.6143733753</v>
       </c>
       <c r="AE3" t="n">
-        <v>456205.6245246209</v>
+        <v>563829.6127875332</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.373446774237191e-06</v>
+        <v>2.721050927498099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>412666.0000086057</v>
+        <v>510018.5058829219</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.5835600303513</v>
+        <v>375.9808118024005</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.2176405793863</v>
+        <v>514.4335338108031</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.9217815486693</v>
+        <v>465.3367193558986</v>
       </c>
       <c r="AD4" t="n">
-        <v>308583.5600303513</v>
+        <v>375980.8118024005</v>
       </c>
       <c r="AE4" t="n">
-        <v>422217.6405793863</v>
+        <v>514433.533810803</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445819505280093e-06</v>
+        <v>2.864434632366628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>381921.7815486693</v>
+        <v>465336.7193558986</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>297.0280148036517</v>
+        <v>353.3346409560705</v>
       </c>
       <c r="AB5" t="n">
-        <v>406.40683380554</v>
+        <v>483.4480437803082</v>
       </c>
       <c r="AC5" t="n">
-        <v>367.6199359827122</v>
+        <v>437.3084410055058</v>
       </c>
       <c r="AD5" t="n">
-        <v>297028.0148036517</v>
+        <v>353334.6409560705</v>
       </c>
       <c r="AE5" t="n">
-        <v>406406.8338055401</v>
+        <v>483448.0437803082</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.470547483943692e-06</v>
+        <v>2.913425310811455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.13932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>367619.9359827122</v>
+        <v>437308.4410055057</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.6104723986525</v>
+        <v>352.9170985510713</v>
       </c>
       <c r="AB6" t="n">
-        <v>405.8355338663492</v>
+        <v>482.8767438411173</v>
       </c>
       <c r="AC6" t="n">
-        <v>367.1031601078932</v>
+        <v>436.7916651306868</v>
       </c>
       <c r="AD6" t="n">
-        <v>296610.4723986525</v>
+        <v>352917.0985510712</v>
       </c>
       <c r="AE6" t="n">
-        <v>405835.5338663492</v>
+        <v>482876.7438411173</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.474949718192044e-06</v>
+        <v>2.922146947360635e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.10677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>367103.1601078932</v>
+        <v>436791.6651306868</v>
       </c>
     </row>
   </sheetData>
